--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2737504.442798994</v>
+        <v>2841738.151192442</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283201</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8776038.126840623</v>
+        <v>8784951.01809223</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>56.44258631319788</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>127.650136282065</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>102.6543677588226</v>
       </c>
       <c r="H4" t="n">
-        <v>49.78571383206897</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>283.6826708844484</v>
+        <v>373.3886011363409</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1102,13 +1104,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.921463429351713</v>
+        <v>149.2419515106227</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>121.1055861235219</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>187.9685985371967</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>138.5369172686238</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>55.35319957926585</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>142.7059665293327</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>91.87204320893659</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3436347319672</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.2708639270857</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>74.53917159609216</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2293,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>142.3575218158277</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223042</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>168.8664936943851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569554</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>28.75188085812118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212293</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>206.7582264966123</v>
       </c>
       <c r="W31" t="n">
-        <v>22.4454785356865</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H34" t="n">
-        <v>5.421623586788372</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.8253826161857249</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3317,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3478,16 +3480,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>39.17658763086935</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>140.307475200959</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3712,16 +3714,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>243.4759147696092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>107.317805417867</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>41.02686156550218</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,16 +4194,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>117.4665281367401</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>901.3425442071336</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943747</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>950.1045973369964</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>950.1045973369964</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>901.3425442071336</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>299.264883884485</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>957.2304598751768</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>435.8535386027987</v>
+        <v>451.9446540427165</v>
       </c>
       <c r="C4" t="n">
-        <v>266.9173556748918</v>
+        <v>451.9446540427165</v>
       </c>
       <c r="D4" t="n">
-        <v>116.8007162625561</v>
+        <v>301.8280146303807</v>
       </c>
       <c r="E4" t="n">
-        <v>116.8007162625561</v>
+        <v>301.8280146303807</v>
       </c>
       <c r="F4" t="n">
-        <v>116.8007162625561</v>
+        <v>154.9380671324704</v>
       </c>
       <c r="G4" t="n">
-        <v>116.8007162625561</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X4" t="n">
-        <v>617.5020034330385</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="Y4" t="n">
-        <v>617.5020034330385</v>
+        <v>451.9446540427165</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535336</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="6">
@@ -4638,19 +4640,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4714,13 +4716,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>1326.59460854119</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>1098.605057643173</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y7" t="n">
-        <v>1091.613680441807</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.63871203243</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1255.676195092019</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>897.4104964852681</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>897.4104964852681</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>486.4245916956606</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>941.4970410294717</v>
+        <v>504.4781294962293</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>504.4781294962293</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>354.3614900838935</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>206.4483965015004</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>206.4483965015004</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>206.4483965015004</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1679.69634110798</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1679.69634110798</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.69634110798</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1390.279171071019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.289620173002</v>
+        <v>906.9191734699991</v>
       </c>
       <c r="Y10" t="n">
-        <v>941.4970410294717</v>
+        <v>686.126594326469</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684977</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424041</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5275,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>3047.140839595366</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>2878.204656667459</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>2728.088017255124</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>2580.174923672731</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>2580.174923672731</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>2412.978824387611</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>3449.581883569136</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>3228.789304425606</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
@@ -5747,55 +5749,55 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2231.588527385791</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L21" t="n">
-        <v>2257.062161108197</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>2854.440648734749</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>3482.038612289356</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
         <v>779.6143379232836</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1833.665603928865</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1578.981115722978</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722978</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756259</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756259</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>738.788911791383</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417933</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972538</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232838</v>
+        <v>580.8993044876634</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597565</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474207</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474207</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474207</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235159</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.5067842581</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602298</v>
       </c>
       <c r="V25" t="n">
-        <v>1517.813638001792</v>
+        <v>1500.747069396411</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.396467964831</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X25" t="n">
-        <v>1000.406917066814</v>
+        <v>983.3403484614332</v>
       </c>
       <c r="Y25" t="n">
-        <v>779.6143379232838</v>
+        <v>762.5477693179031</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362688</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638194191</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111864</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107594</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332398</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014788</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355943</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756259</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468454</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962603</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373307</v>
+        <v>1072.713683962603</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1700.311647517208</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2252.221377756493</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558406</v>
+        <v>3342.537229081866</v>
       </c>
       <c r="C28" t="n">
-        <v>2757.723669558406</v>
+        <v>3173.601046153959</v>
       </c>
       <c r="D28" t="n">
-        <v>2757.723669558406</v>
+        <v>3023.484406741623</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661314</v>
+        <v>2875.57131315923</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>2728.68136566132</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>2561.4852663762</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218398</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866311</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296635</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822172</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998112</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729146</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.430181389153</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P28" t="n">
         <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430193</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>3744.978273055636</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>3524.185693912106</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638194231</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111872</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075957</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.6115533324</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301479</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355946</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068016</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694712</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>243.463305575626</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.588527385791</v>
+        <v>243.463305575626</v>
       </c>
       <c r="L30" t="n">
-        <v>2726.91413360155</v>
+        <v>738.7889117913832</v>
       </c>
       <c r="M30" t="n">
-        <v>3324.292621228102</v>
+        <v>1336.167399417933</v>
       </c>
       <c r="N30" t="n">
-        <v>3715.300272664238</v>
+        <v>1336.167399417933</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903525</v>
+        <v>1888.077129657219</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2311.700279152286</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2544.961939527167</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3091.514342801865</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>3091.514342801865</v>
+        <v>929.7309773356197</v>
       </c>
       <c r="D31" t="n">
-        <v>2941.39770338953</v>
+        <v>779.614337923284</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807137</v>
+        <v>631.7012443408909</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038333</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>2227.361618603196</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>2227.361618603196</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>3721.944937673653</v>
+        <v>1729.097755135314</v>
       </c>
       <c r="X31" t="n">
-        <v>3493.955386775635</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>3273.162807632105</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014789</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,40 +6764,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756259</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756259</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969362</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969362</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951541</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190827</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>2824.769373306004</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>2655.833190378097</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768874</v>
+        <v>2505.716550965761</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4891497944943</v>
+        <v>2505.716550965761</v>
       </c>
       <c r="F34" t="n">
-        <v>266.4891497944943</v>
+        <v>2505.716550965761</v>
       </c>
       <c r="G34" t="n">
-        <v>99.29305050937427</v>
+        <v>2338.520451680641</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2338.520451680641</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866312</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296636</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822173</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998113</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729146</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389154</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098138</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>3227.210417279774</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>3006.417838136244</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6950,22 +6952,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3200.825397924058</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>3031.889214996151</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583815</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001422</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503512</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218392</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>3932.25592267304</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W37" t="n">
-        <v>3642.838752636079</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>3603.266441897827</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>3382.473862754297</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7166,28 +7168,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,22 +7201,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081858</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153951</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741615</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159222</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661312</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053497</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4507.978318053497</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>4218.903091397695</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3972.967823953645</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>3972.967823953645</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055628</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2490.323821483079</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>2490.323821483079</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>3087.702309109631</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>3715.300272664238</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>135.2579373565599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,22 +7663,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7685,13 +7687,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081858</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153951</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741615</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159222</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305899</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.33114932884</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673038</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3813.602863949058</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3524.185693912098</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3524.185693912098</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.9556134883067102</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9650,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.739408617140725e-11</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.727996117236472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>48.42266963728727</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>53.48834544997014</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.56111625485163</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>65.7555412501317</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>143.8269525734164</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>6.257951202384504</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.4693302300385</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>83.27114962944287</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>117.682081788448</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>40.30478226780789</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>45.37941682721572</v>
       </c>
       <c r="W31" t="n">
-        <v>264.0775198009045</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.8730892594355</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237998</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>186.5330677581678</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>39.52450498097832</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>8.661728554218797</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>39.11615722870215</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>99.26785128072171</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>768612.796599647</v>
+        <v>777525.6878512532</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884406</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884406</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884409</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884406</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442543</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442546</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-9.006629355765958e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605457</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551405</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.17909312021</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26436,25 +26438,25 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
+        <v>9947.144321769418</v>
+      </c>
+      <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="J4" t="n">
-        <v>9947.144321768879</v>
-      </c>
       <c r="K4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768896</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768958</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26488,10 +26490,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-848453.4052440725</v>
+        <v>-668260.5062849525</v>
       </c>
       <c r="C6" t="n">
+        <v>276852.5988714141</v>
+      </c>
+      <c r="D6" t="n">
         <v>480291.3404835199</v>
       </c>
-      <c r="D6" t="n">
-        <v>480291.3404835203</v>
-      </c>
       <c r="E6" t="n">
-        <v>229413.8087912236</v>
+        <v>229413.8087912237</v>
       </c>
       <c r="F6" t="n">
+        <v>554826.2705985792</v>
+      </c>
+      <c r="G6" t="n">
+        <v>554826.270598579</v>
+      </c>
+      <c r="H6" t="n">
+        <v>554826.2705985791</v>
+      </c>
+      <c r="I6" t="n">
+        <v>554826.2705985814</v>
+      </c>
+      <c r="J6" t="n">
+        <v>387221.0927885958</v>
+      </c>
+      <c r="K6" t="n">
+        <v>505716.1778925242</v>
+      </c>
+      <c r="L6" t="n">
         <v>554826.2705985787</v>
       </c>
-      <c r="G6" t="n">
-        <v>554826.2705985791</v>
-      </c>
-      <c r="H6" t="n">
-        <v>554826.2705985792</v>
-      </c>
-      <c r="I6" t="n">
-        <v>554826.270598579</v>
-      </c>
-      <c r="J6" t="n">
-        <v>337295.0682013015</v>
-      </c>
-      <c r="K6" t="n">
-        <v>554826.2705985787</v>
-      </c>
-      <c r="L6" t="n">
-        <v>554826.2705985791</v>
-      </c>
       <c r="M6" t="n">
-        <v>469771.2426630669</v>
+        <v>469771.2426630649</v>
       </c>
       <c r="N6" t="n">
-        <v>554826.270598579</v>
+        <v>554826.2705985788</v>
       </c>
       <c r="O6" t="n">
+        <v>554826.2705985788</v>
+      </c>
+      <c r="P6" t="n">
         <v>554826.2705985786</v>
-      </c>
-      <c r="P6" t="n">
-        <v>554826.270598579</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26756,16 +26758,16 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="M3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.901059792871004e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>308.8303054578097</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>279.2259094596464</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>63.6522322859816</v>
       </c>
       <c r="H4" t="n">
-        <v>94.9693010822518</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.05117077903219</v>
+        <v>9.345240527139708</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6631899227431</v>
+        <v>69.34270184147212</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>289.8161395299315</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>198.2693401188569</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>6.218097645696986</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>164.1957496969033</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M12" t="n">
-        <v>467.7715423565662</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>506.5665344352332</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>305.1876769472509</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,13 +32566,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171973</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418556</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067393</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M27" t="n">
-        <v>613.252904837103</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913828</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N30" t="n">
-        <v>526.2989357561987</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>153.8606640989211</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175826</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226118</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O33" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33737,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>210.3948924365567</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33971,19 +33973,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N39" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>397.4049812900374</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34369,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34457,7 +34459,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>187.5431097317916</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M12" t="n">
-        <v>325.6375084345479</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132149</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>167.3462379728919</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394525</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36214,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243313</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M24" t="n">
-        <v>27.13475084531539</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028670664</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789168</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.53969023633337</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M27" t="n">
-        <v>471.1188709150846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770526</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N30" t="n">
-        <v>394.9572236728654</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>8.181160134957125</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107903099</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427377</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O33" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37385,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>68.26085851453838</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N39" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>259.5635423156784</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,7 +38107,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2841738.151192442</v>
+        <v>2837684.025433063</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283201</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>56.44258631319788</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>251.5572263814747</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>102.6543677588226</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>51.27659234081855</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>373.3886011363409</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>296.8179291114902</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>200.6939993756705</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.2419515106227</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>284.4297735342292</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.9685985371967</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380461</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5369172686238</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>91.87204320893659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>126.3436347319672</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>251.2117044543522</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>74.53917159609216</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>171.6971896214536</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>195.7650292738202</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.05480806223042</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922689</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>185.4048731212293</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V31" t="n">
-        <v>206.7582264966123</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>161.9488727106798</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8253826161857249</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.307475200959</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>107.317805417867</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901.3425442071336</v>
+        <v>747.626661887866</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>378.6641449474543</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>378.6641449474543</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>378.6641449474543</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>371.7186441982508</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071336</v>
+        <v>1134.226501951988</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>299.264883884485</v>
+        <v>483.0441129489469</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159568</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751768</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451.9446540427165</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>451.9446540427165</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>301.8280146303807</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>301.8280146303807</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>154.9380671324704</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4488,25 +4488,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1216.838891429094</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>962.1544032232072</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W4" t="n">
-        <v>672.7372331862466</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>672.7372331862466</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>451.9446540427165</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1506.769408348802</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1120.981155750557</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4579,10 +4579,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450753</v>
+        <v>2251.634947019674</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1724.573336597917</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1469.88884839203</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>1180.471678355069</v>
       </c>
       <c r="X7" t="n">
-        <v>1424.011591242373</v>
+        <v>952.4821274570515</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>731.6895483135214</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923659</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X8" t="n">
-        <v>2535.034709923659</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>504.4781294962293</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>504.4781294962293</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>354.3614900838935</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>206.4483965015004</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>206.4483965015004</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>206.4483965015004</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>906.9191734699991</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>686.126594326469</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,19 +5059,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5083,10 +5083,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836018</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556949</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>415.5933575433592</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>415.5933575433592</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>268.7034100454488</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>268.7034100454488</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.9279362553159</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3047.140839595366</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C19" t="n">
-        <v>2878.204656667459</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D19" t="n">
-        <v>2728.088017255124</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E19" t="n">
-        <v>2580.174923672731</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>2580.174923672731</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>2412.978824387611</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328842</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.25592267304</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>3677.571434467153</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W19" t="n">
-        <v>3677.571434467153</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X19" t="n">
-        <v>3449.581883569136</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y19" t="n">
-        <v>3228.789304425606</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5779,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756259</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756259</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.788911791383</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417933</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876634</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597565</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474207</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474207</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474207</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235159</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.5067842581</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602298</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396411</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359451</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614332</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638194191</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111864</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107594</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332398</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014788</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355943</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756259</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468454</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962603</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962603</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517208</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756493</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081866</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741623</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.57131315923</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.68136566132</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.4852663762</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218398</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866311</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296635</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822172</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998112</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729146</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3932.255922673039</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055636</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912106</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638194231</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111872</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075957</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.6115533324</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301479</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355946</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068016</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694712</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,43 +6527,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.463305575626</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.463305575626</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913832</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417933</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.167399417933</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1888.077129657219</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2311.700279152286</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2544.961939527167</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356197</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>779.614337923284</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408909</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429805</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578604</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038333</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580255</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603196</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2227.361618603196</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135314</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014789</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,40 +6764,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756259</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756259</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969362</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969362</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951541</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190827</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2824.769373306004</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C34" t="n">
-        <v>2655.833190378097</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D34" t="n">
-        <v>2505.716550965761</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>2505.716550965761</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2505.716550965761</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2338.520451680641</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2338.520451680641</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866312</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296636</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822173</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998113</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729146</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389154</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053499</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.37685307644</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420638</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.617138214751</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.199968177791</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279774</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136244</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,40 +7165,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>620.8230468926974</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,46 +7405,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7566,16 +7566,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9556134883067102</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.739408617140725e-11</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>48.42266963728727</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.48834544997014</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.9259388694757718</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>65.7555412501317</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>80.44045370237441</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>29.94462611521692</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>139.4693302300385</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012194</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>40.30478226780789</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012194</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V31" t="n">
-        <v>45.37941682721572</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>5.297948387947997</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>80.44045370237998</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.52450498097832</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>39.11615722870215</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755759.7641884409</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884406</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442553</v>
-      </c>
       <c r="J2" t="n">
-        <v>665895.9447442543</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442549</v>
@@ -26352,10 +26352,10 @@
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442546</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-9.006629355765958e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605457</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551405</v>
+        <v>85055.02793551165</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,10 +26423,10 @@
         <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768868</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26438,25 +26438,25 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321769418</v>
+        <v>9947.144321768961</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768896</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768963</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768981</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768939</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26490,10 +26490,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-668260.5062849525</v>
+        <v>-668260.5062849522</v>
       </c>
       <c r="C6" t="n">
-        <v>276852.5988714141</v>
+        <v>276852.5988714139</v>
       </c>
       <c r="D6" t="n">
-        <v>480291.3404835199</v>
+        <v>480291.3404835202</v>
       </c>
       <c r="E6" t="n">
-        <v>229413.8087912237</v>
+        <v>229066.4295368666</v>
       </c>
       <c r="F6" t="n">
-        <v>554826.2705985792</v>
+        <v>554478.8913442219</v>
       </c>
       <c r="G6" t="n">
-        <v>554826.270598579</v>
+        <v>554478.8913442218</v>
       </c>
       <c r="H6" t="n">
-        <v>554826.2705985791</v>
+        <v>554478.8913442222</v>
       </c>
       <c r="I6" t="n">
-        <v>554826.2705985814</v>
+        <v>554478.8913442221</v>
       </c>
       <c r="J6" t="n">
-        <v>387221.0927885958</v>
+        <v>386873.7135342392</v>
       </c>
       <c r="K6" t="n">
-        <v>505716.1778925242</v>
+        <v>505368.7986381674</v>
       </c>
       <c r="L6" t="n">
-        <v>554826.2705985787</v>
+        <v>554478.8913442219</v>
       </c>
       <c r="M6" t="n">
-        <v>469771.2426630649</v>
+        <v>469423.8634087102</v>
       </c>
       <c r="N6" t="n">
-        <v>554826.2705985788</v>
+        <v>554478.8913442218</v>
       </c>
       <c r="O6" t="n">
-        <v>554826.2705985788</v>
+        <v>554478.891344222</v>
       </c>
       <c r="P6" t="n">
-        <v>554826.2705985786</v>
+        <v>554478.8913442218</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26758,16 +26758,16 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
         <v>1367.975500341674</v>
@@ -26795,16 +26795,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.901059792871004e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>308.8303054578097</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>159.9904763914792</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>63.6522322859816</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,22 +27587,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>235.2464059957724</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.345240527139708</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>110.0581166302212</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>85.51783882994241</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.34270184147212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>126.4919521192243</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.2693401188569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276456</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>6.218097645696986</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.429578708524912e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>309.9424824173362</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437227</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>134.7284881171973</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418556</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067393</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422575</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8531046913828</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214685</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485282</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>153.8606640989211</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175826</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>616.5397119226118</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214685</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485282</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,40 +33733,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>187.5431097317916</v>
+        <v>373.1786946453895</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>55.96455263125056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>167.3462379728918</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243313</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992783</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7540807028670664</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789168</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.53969023633337</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678985</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770526</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071383</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625067</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.181160134957125</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367754</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107903099</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>477.9853321427377</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071383</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625067</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2837684.025433063</v>
+        <v>2839444.555735848</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8784951.01809223</v>
+        <v>8784951.018092228</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>251.5572263814747</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>234.1055905923163</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110055</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>51.27659234081855</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>296.8179291114902</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>34.91991919249458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>111.7244765928111</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>200.6939993756705</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>284.4297735342292</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380461</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>220.2858449881296</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576164</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>251.2117044543522</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>171.6971896214536</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>195.7650292738202</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>20.43112068613158</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>220.6346102953135</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>161.9488727106798</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>12.74007641194018</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>747.626661887866</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="C2" t="n">
-        <v>378.6641449474543</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>378.6641449474543</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>378.6641449474543</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7186441982508</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4363,19 +4363,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="W2" t="n">
-        <v>1897.831592188879</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="X2" t="n">
-        <v>1524.365833927799</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="Y2" t="n">
-        <v>1134.226501951988</v>
+        <v>1992.424186004858</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>168.0008189145204</v>
       </c>
       <c r="K3" t="n">
-        <v>483.0441129489469</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>1387.807075285521</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>1218.870892357614</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>1068.754252945278</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>2307.654840194269</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>2018.237670157308</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>1790.248119259291</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>1569.455540115761</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.035106955552</v>
+        <v>1565.440264581602</v>
       </c>
       <c r="C5" t="n">
-        <v>1865.035106955552</v>
+        <v>1565.440264581602</v>
       </c>
       <c r="D5" t="n">
-        <v>1506.769408348802</v>
+        <v>1207.174565974852</v>
       </c>
       <c r="E5" t="n">
-        <v>1120.981155750557</v>
+        <v>821.3863133766076</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>814.4408126274042</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>399.3683624724006</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>101.7847620811679</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X5" t="n">
-        <v>2641.774278995485</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.634947019674</v>
+        <v>1952.040104645724</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4670,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4691,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.0410834832817</v>
+        <v>645.3078929297416</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>476.3717100018347</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>326.2550705894989</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>326.2550705894989</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>179.3651230915886</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1724.573336597917</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V7" t="n">
-        <v>1469.88884839203</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W7" t="n">
-        <v>1180.471678355069</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>952.4821274570515</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y7" t="n">
-        <v>731.6895483135214</v>
+        <v>645.3078929297416</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367745</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760994</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.38442316275</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>651.3985183731427</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
         <v>66.5121164321834</v>
@@ -4816,10 +4816,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296685</v>
@@ -4843,13 +4843,13 @@
         <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.60582160917</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.14006334809</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
         <v>66.5121164321834</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>932.6923844141636</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>711.8998052706335</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,10 +5369,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.079034721979</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O15" t="n">
-        <v>2253.988764961266</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5758,16 +5758,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.955532171245</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1129.396576145015</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.6039970014847</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6545,16 +6545,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1754.597837787969</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.913349582082</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1210.496179545122</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>982.5066286471044</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6685,52 +6685,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.402603663004</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6922,25 +6922,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6964,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7089,19 +7089,19 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7162,43 +7162,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192588</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7566,16 +7566,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.95314511566572</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5911984019047</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9259388694757718</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>80.44045370237441</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>29.94462611521692</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>126.0028419604376</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>65.54986409393067</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>5.297948387947997</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>182.9484181982414</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380336</v>
-      </c>
       <c r="E2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442547</v>
-      </c>
-      <c r="F2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442548</v>
@@ -26346,16 +26346,16 @@
         <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121063</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605454</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551165</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,13 +26420,13 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312014</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768868</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26438,7 +26438,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768961</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26447,16 +26447,16 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
+        <v>9947.144321768963</v>
+      </c>
+      <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="M4" t="n">
-        <v>9947.144321768963</v>
-      </c>
       <c r="N4" t="n">
-        <v>9947.144321768981</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-668260.5062849522</v>
+        <v>-668260.5062849524</v>
       </c>
       <c r="C6" t="n">
-        <v>276852.5988714139</v>
+        <v>276852.5988714137</v>
       </c>
       <c r="D6" t="n">
         <v>480291.3404835202</v>
       </c>
       <c r="E6" t="n">
-        <v>229066.4295368666</v>
+        <v>229379.0708657879</v>
       </c>
       <c r="F6" t="n">
-        <v>554478.8913442219</v>
+        <v>554791.5326731433</v>
       </c>
       <c r="G6" t="n">
-        <v>554478.8913442218</v>
+        <v>554791.5326731435</v>
       </c>
       <c r="H6" t="n">
-        <v>554478.8913442222</v>
+        <v>554791.5326731432</v>
       </c>
       <c r="I6" t="n">
-        <v>554478.8913442221</v>
+        <v>554791.5326731435</v>
       </c>
       <c r="J6" t="n">
-        <v>386873.7135342392</v>
+        <v>387186.3548631608</v>
       </c>
       <c r="K6" t="n">
-        <v>505368.7986381674</v>
+        <v>505681.4399670885</v>
       </c>
       <c r="L6" t="n">
-        <v>554478.8913442219</v>
+        <v>554791.5326731432</v>
       </c>
       <c r="M6" t="n">
-        <v>469423.8634087102</v>
+        <v>469736.5047376313</v>
       </c>
       <c r="N6" t="n">
-        <v>554478.8913442218</v>
+        <v>554791.5326731434</v>
       </c>
       <c r="O6" t="n">
-        <v>554478.891344222</v>
+        <v>554791.5326731433</v>
       </c>
       <c r="P6" t="n">
-        <v>554478.8913442218</v>
+        <v>554791.5326731433</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,19 +26792,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>159.9904763914792</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>16.93965953614568</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55.73584717546862</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27593,13 +27593,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>235.2464059957724</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>110.0581166302212</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.657010580431347</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>54.30133166621714</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>85.51783882994241</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>126.4919521192243</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276456</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>65.92599321748332</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>436.0678650906015</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>117.9333660065831</v>
       </c>
       <c r="K3" t="n">
-        <v>373.1786946453895</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -34798,7 +34798,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>302.0934576762713</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
